--- a/Account_approval_process.xlsx
+++ b/Account_approval_process.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anjubisht\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Documents\GitHub\Pradipta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A5CE51D-7B37-4A82-AACA-1AC397E151E5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74EE25DE-4DED-4803-A2F6-AE5005956DB8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5055" yWindow="4800" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test-Cases" sheetId="2" r:id="rId1"/>
@@ -220,7 +220,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -268,8 +268,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{E253B018-51BA-4F09-8DCF-339F43D0CDC2}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
